--- a/biology/Médecine/Radiologie_numérique/Radiologie_numérique.xlsx
+++ b/biology/Médecine/Radiologie_numérique/Radiologie_numérique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Radiologie_num%C3%A9rique</t>
+          <t>Radiologie_numérique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La radiologie numérique est l'ensemble des techniques qui permettent d'obtenir des images radiologiques numérisées.
 En radiographie, la numérisation peut se faire :
@@ -494,7 +506,7 @@
 d'obtenir une meilleure qualité d'image notamment grâce aux possibilités offertes par le filtrage numérique ;
 de donner accès à plus d'information de par la meilleure résolution de contraste (l'œil ne peut voir qu'environ 200 niveaux de gris ; les numérisations s'effectuent sur entre 4000 (12 bits) et 65000 (16 bits) niveaux de gris suivant les appareils qui peuvent être ramenés à des niveaux accessibles l'œil de manière optimisée suivant l'information recherchée) ;
 le stockage et l'envoi des informations via support numérique ;
-La radiologie numérique permet des applications de téléradiologie où le médecin qui interprète l'examen est à distance (parfois même dans un autre pays) du lieu où est effectué ce dernier. Des applications de cette technologie sont effectives dans certains hôpitaux des États-Unis où des radiologues, situés en Inde font une première analyse des clichés[1].
+La radiologie numérique permet des applications de téléradiologie où le médecin qui interprète l'examen est à distance (parfois même dans un autre pays) du lieu où est effectué ce dernier. Des applications de cette technologie sont effectives dans certains hôpitaux des États-Unis où des radiologues, situés en Inde font une première analyse des clichés.
 La radiologie numérique est utilisée en médecines humaine et vétérinaire, en dentisterie, en contrôle non destructif et en sécurité où elle a pris le pas sur le film.
 </t>
         </is>
